--- a/qa/lastmonth/【SQA质量月报】系统软件部202009.xlsx
+++ b/qa/lastmonth/【SQA质量月报】系统软件部202009.xlsx
@@ -3884,12 +3884,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="66">
     <font>
@@ -4200,6 +4200,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -4207,7 +4216,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4216,7 +4245,53 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4231,44 +4306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4283,46 +4321,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4331,14 +4339,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4523,7 +4523,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4535,139 +4661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5175,17 +5175,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF4472C4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5199,11 +5204,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5238,17 +5249,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4472C4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5271,10 +5271,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="38" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="37" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5283,148 +5283,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="50" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="50" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="29" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="48" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="36" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5435,10 +5435,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5928,17 +5928,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="20" applyFont="1"/>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="4" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="22" fillId="19" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="177" fontId="22" fillId="19" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="19" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="20" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="20" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="4" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6182,63 +6182,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="6" borderId="37" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6269,10 +6254,10 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6287,16 +6272,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6890,206 +6875,206 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.15" customHeight="1" spans="1:4">
-      <c r="A1" s="308" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
+      <c r="A1" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="310" t="s">
+      <c r="D2" s="305" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="311">
+      <c r="A3" s="306">
         <v>1</v>
       </c>
-      <c r="B3" s="312" t="s">
+      <c r="B3" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="312"/>
-      <c r="D3" s="313"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="308"/>
     </row>
     <row r="4" ht="49.5" outlineLevel="1" spans="1:4">
-      <c r="A4" s="314"/>
-      <c r="B4" s="315" t="s">
+      <c r="A4" s="309"/>
+      <c r="B4" s="310" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="316" t="s">
+      <c r="C4" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="313" t="s">
+      <c r="D4" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:4">
-      <c r="A5" s="311">
+      <c r="A5" s="306">
         <v>2</v>
       </c>
-      <c r="B5" s="312" t="s">
+      <c r="B5" s="307" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="312"/>
-      <c r="D5" s="313"/>
+      <c r="C5" s="307"/>
+      <c r="D5" s="308"/>
     </row>
     <row r="6" ht="19.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A6" s="314"/>
-      <c r="B6" s="317" t="s">
+      <c r="A6" s="309"/>
+      <c r="B6" s="312" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="318" t="s">
+      <c r="C6" s="313" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="313" t="s">
+      <c r="D6" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="311">
+      <c r="A7" s="306">
         <v>3</v>
       </c>
-      <c r="B7" s="312" t="s">
+      <c r="B7" s="307" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="312"/>
-      <c r="D7" s="313"/>
+      <c r="C7" s="307"/>
+      <c r="D7" s="308"/>
     </row>
     <row r="8" outlineLevel="1" spans="2:4">
-      <c r="B8" s="319" t="s">
+      <c r="B8" s="314" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="313" t="s">
+      <c r="D8" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" outlineLevel="1" spans="2:4">
-      <c r="B9" s="319" t="s">
+      <c r="B9" s="314" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="313" t="s">
+      <c r="D9" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" outlineLevel="1" spans="2:4">
-      <c r="B10" s="319" t="s">
+      <c r="B10" s="314" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="313" t="s">
+      <c r="D10" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" outlineLevel="1" spans="2:4">
-      <c r="B11" s="319" t="s">
+      <c r="B11" s="314" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="313" t="s">
+      <c r="D11" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" outlineLevel="1" spans="2:4">
-      <c r="B12" s="319" t="s">
+      <c r="B12" s="314" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="313" t="s">
+      <c r="D12" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="312" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="313" t="s">
+      <c r="D13" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="26.1" customHeight="1" outlineLevel="1" spans="2:4">
-      <c r="B14" s="317" t="s">
+      <c r="B14" s="312" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="313" t="s">
+      <c r="D14" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="317" t="s">
+      <c r="B15" s="312" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="313" t="s">
+      <c r="D15" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="317" t="s">
+      <c r="B16" s="312" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="313" t="s">
+      <c r="D16" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="317" t="s">
+      <c r="B17" s="312" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="313" t="s">
+      <c r="D17" s="308" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="311">
+      <c r="A18" s="306">
         <v>4</v>
       </c>
-      <c r="B18" s="312" t="s">
+      <c r="B18" s="307" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="312"/>
-      <c r="D18" s="313"/>
+      <c r="C18" s="307"/>
+      <c r="D18" s="308"/>
     </row>
     <row r="19" ht="33" spans="2:3">
-      <c r="B19" s="319" t="s">
+      <c r="B19" s="314" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="320" t="s">
+      <c r="C19" s="315" t="s">
         <v>35</v>
       </c>
     </row>
@@ -16272,7 +16257,7 @@
       <c r="D56" s="49" t="s">
         <v>1184</v>
       </c>
-      <c r="E56" s="321" t="s">
+      <c r="E56" s="316" t="s">
         <v>1191</v>
       </c>
       <c r="F56" s="49" t="str">
@@ -16353,13 +16338,13 @@
       <c r="B57" s="37" t="s">
         <v>1179</v>
       </c>
-      <c r="C57" s="321" t="s">
+      <c r="C57" s="316" t="s">
         <v>1191</v>
       </c>
       <c r="D57" s="49" t="s">
         <v>1184</v>
       </c>
-      <c r="E57" s="321" t="s">
+      <c r="E57" s="316" t="s">
         <v>1191</v>
       </c>
       <c r="F57" s="49" t="str">
@@ -16440,7 +16425,7 @@
       <c r="B58" s="37" t="s">
         <v>1180</v>
       </c>
-      <c r="C58" s="321" t="s">
+      <c r="C58" s="316" t="s">
         <v>1191</v>
       </c>
       <c r="D58" s="49">
@@ -16620,7 +16605,7 @@
       <c r="D60" s="49" t="s">
         <v>1184</v>
       </c>
-      <c r="E60" s="321" t="s">
+      <c r="E60" s="316" t="s">
         <v>1191</v>
       </c>
       <c r="F60" s="49" t="str">
@@ -16701,13 +16686,13 @@
       <c r="B61" s="37" t="s">
         <v>1179</v>
       </c>
-      <c r="C61" s="321" t="s">
+      <c r="C61" s="316" t="s">
         <v>1191</v>
       </c>
       <c r="D61" s="49" t="s">
         <v>1184</v>
       </c>
-      <c r="E61" s="321" t="s">
+      <c r="E61" s="316" t="s">
         <v>1191</v>
       </c>
       <c r="F61" s="49" t="str">
@@ -16788,7 +16773,7 @@
       <c r="B62" s="37" t="s">
         <v>1180</v>
       </c>
-      <c r="C62" s="321" t="s">
+      <c r="C62" s="316" t="s">
         <v>1191</v>
       </c>
       <c r="D62" s="49">
@@ -16970,7 +16955,7 @@
         <f>IFERROR(#REF!/(#REF!+#REF!),"-")</f>
         <v>-</v>
       </c>
-      <c r="E64" s="321" t="s">
+      <c r="E64" s="316" t="s">
         <v>1191</v>
       </c>
       <c r="F64" s="49" t="str">
@@ -17051,14 +17036,14 @@
       <c r="B65" s="21" t="s">
         <v>1179</v>
       </c>
-      <c r="C65" s="321" t="s">
+      <c r="C65" s="316" t="s">
         <v>1191</v>
       </c>
       <c r="D65" s="49" t="str">
         <f>IFERROR(#REF!/(#REF!+#REF!),"-")</f>
         <v>-</v>
       </c>
-      <c r="E65" s="321" t="s">
+      <c r="E65" s="316" t="s">
         <v>1191</v>
       </c>
       <c r="F65" s="49" t="str">
@@ -17139,7 +17124,7 @@
       <c r="B66" s="37" t="s">
         <v>1180</v>
       </c>
-      <c r="C66" s="321" t="s">
+      <c r="C66" s="316" t="s">
         <v>1191</v>
       </c>
       <c r="D66" s="49" t="str">
@@ -17398,10 +17383,10 @@
       <c r="B69" s="37" t="s">
         <v>1179</v>
       </c>
-      <c r="C69" s="321" t="s">
+      <c r="C69" s="316" t="s">
         <v>1191</v>
       </c>
-      <c r="D69" s="321" t="s">
+      <c r="D69" s="316" t="s">
         <v>1191</v>
       </c>
       <c r="E69" s="49">
@@ -17481,10 +17466,10 @@
       <c r="B70" s="37" t="s">
         <v>1180</v>
       </c>
-      <c r="C70" s="321" t="s">
+      <c r="C70" s="316" t="s">
         <v>1191</v>
       </c>
-      <c r="D70" s="321" t="s">
+      <c r="D70" s="316" t="s">
         <v>1191</v>
       </c>
       <c r="E70" s="49">
@@ -17731,10 +17716,10 @@
       <c r="B73" s="37" t="s">
         <v>1179</v>
       </c>
-      <c r="C73" s="322" t="s">
+      <c r="C73" s="317" t="s">
         <v>1191</v>
       </c>
-      <c r="D73" s="322" t="s">
+      <c r="D73" s="317" t="s">
         <v>1191</v>
       </c>
       <c r="E73" s="124">
@@ -17814,10 +17799,10 @@
       <c r="B74" s="37" t="s">
         <v>1180</v>
       </c>
-      <c r="C74" s="322" t="s">
+      <c r="C74" s="317" t="s">
         <v>1191</v>
       </c>
-      <c r="D74" s="322" t="s">
+      <c r="D74" s="317" t="s">
         <v>1191</v>
       </c>
       <c r="E74" s="124">
@@ -17944,8 +17929,8 @@
   </sheetPr>
   <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I3" sqref="I$1:I$1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="16.5"/>
@@ -18001,8 +17986,8 @@
       <c r="K2" s="224"/>
       <c r="L2" s="224"/>
       <c r="M2" s="224"/>
-      <c r="N2" s="262"/>
-      <c r="O2" s="262"/>
+      <c r="N2" s="261"/>
+      <c r="O2" s="261"/>
     </row>
     <row r="3" s="177" customFormat="1" ht="23.1" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A3" s="225" t="s">
@@ -18066,11 +18051,11 @@
       <c r="H4" s="229">
         <v>0</v>
       </c>
-      <c r="I4" s="263"/>
-      <c r="J4" s="264" t="s">
+      <c r="I4" s="229"/>
+      <c r="J4" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="264" t="s">
+      <c r="K4" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="229">
@@ -18107,10 +18092,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="236"/>
-      <c r="J5" s="264" t="s">
+      <c r="J5" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="264" t="s">
+      <c r="K5" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L5" s="229">
@@ -18122,7 +18107,7 @@
         <f>SUM(J5:M5)</f>
         <v>3</v>
       </c>
-      <c r="O5" s="265"/>
+      <c r="O5" s="263"/>
     </row>
     <row r="6" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A6" s="237"/>
@@ -18142,22 +18127,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="236"/>
-      <c r="J6" s="264" t="s">
+      <c r="J6" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="264" t="s">
+      <c r="K6" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L6" s="229">
         <f>F6+G6</f>
         <v>3</v>
       </c>
-      <c r="M6" s="266"/>
+      <c r="M6" s="264"/>
       <c r="N6" s="236">
         <f>SUM(J6:M6)</f>
         <v>3</v>
       </c>
-      <c r="O6" s="265"/>
+      <c r="O6" s="263"/>
     </row>
     <row r="7" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A7" s="237"/>
@@ -18177,22 +18162,22 @@
         <v>0</v>
       </c>
       <c r="I7" s="236"/>
-      <c r="J7" s="264" t="s">
+      <c r="J7" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="264" t="s">
+      <c r="K7" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L7" s="229">
         <f>F7+G7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="266"/>
+      <c r="M7" s="264"/>
       <c r="N7" s="236">
         <f>SUM(J7:M7)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="265"/>
+      <c r="O7" s="263"/>
     </row>
     <row r="8" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A8" s="237"/>
@@ -18212,22 +18197,22 @@
         <v>0</v>
       </c>
       <c r="I8" s="236"/>
-      <c r="J8" s="264" t="s">
+      <c r="J8" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="264" t="s">
+      <c r="K8" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L8" s="229">
         <f>F8+G8</f>
         <v>0</v>
       </c>
-      <c r="M8" s="266"/>
+      <c r="M8" s="264"/>
       <c r="N8" s="236">
         <f>SUM(J8:M8)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="265"/>
+      <c r="O8" s="263"/>
     </row>
     <row r="9" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A9" s="237"/>
@@ -18251,20 +18236,20 @@
         <v>0.4615</v>
       </c>
       <c r="I9" s="243"/>
-      <c r="J9" s="264" t="s">
+      <c r="J9" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="264" t="s">
+      <c r="K9" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L9" s="243">
         <v>0.4815</v>
       </c>
-      <c r="M9" s="266"/>
+      <c r="M9" s="264"/>
       <c r="N9" s="243">
         <v>0.4815</v>
       </c>
-      <c r="O9" s="265"/>
+      <c r="O9" s="263"/>
     </row>
     <row r="10" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A10" s="237"/>
@@ -18286,20 +18271,20 @@
         <v>0.4285</v>
       </c>
       <c r="I10" s="243"/>
-      <c r="J10" s="264" t="s">
+      <c r="J10" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="264" t="s">
+      <c r="K10" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L10" s="243">
         <v>0.4545</v>
       </c>
-      <c r="M10" s="266"/>
+      <c r="M10" s="264"/>
       <c r="N10" s="243">
         <v>0.4545</v>
       </c>
-      <c r="O10" s="265"/>
+      <c r="O10" s="263"/>
     </row>
     <row r="11" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A11" s="237"/>
@@ -18321,20 +18306,20 @@
         <v>64</v>
       </c>
       <c r="I11" s="236"/>
-      <c r="J11" s="264" t="s">
+      <c r="J11" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="264" t="s">
+      <c r="K11" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L11" s="243">
         <v>0.5</v>
       </c>
-      <c r="M11" s="266"/>
+      <c r="M11" s="264"/>
       <c r="N11" s="243">
         <v>0.5</v>
       </c>
-      <c r="O11" s="265"/>
+      <c r="O11" s="263"/>
     </row>
     <row r="12" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A12" s="237"/>
@@ -18356,20 +18341,20 @@
         <v>0.5</v>
       </c>
       <c r="I12" s="243"/>
-      <c r="J12" s="264" t="s">
+      <c r="J12" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="264" t="s">
+      <c r="K12" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L12" s="243">
         <v>0.5</v>
       </c>
-      <c r="M12" s="266"/>
+      <c r="M12" s="264"/>
       <c r="N12" s="243">
         <v>0.5</v>
       </c>
-      <c r="O12" s="265"/>
+      <c r="O12" s="263"/>
     </row>
     <row r="13" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A13" s="237"/>
@@ -18391,22 +18376,22 @@
         <v>6</v>
       </c>
       <c r="I13" s="236"/>
-      <c r="J13" s="264" t="s">
+      <c r="J13" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="264" t="s">
+      <c r="K13" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L13" s="229">
         <f>SUM(F13:H13)</f>
         <v>13</v>
       </c>
-      <c r="M13" s="266"/>
+      <c r="M13" s="264"/>
       <c r="N13" s="236">
         <f>SUM(J13:M13)</f>
         <v>13</v>
       </c>
-      <c r="O13" s="267"/>
+      <c r="O13" s="265"/>
     </row>
     <row r="14" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A14" s="237"/>
@@ -18426,22 +18411,22 @@
         <v>3</v>
       </c>
       <c r="I14" s="236"/>
-      <c r="J14" s="264" t="s">
+      <c r="J14" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="264" t="s">
+      <c r="K14" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L14" s="229">
         <f>F14+G14</f>
         <v>2</v>
       </c>
-      <c r="M14" s="266"/>
+      <c r="M14" s="264"/>
       <c r="N14" s="236">
         <f>SUM(J14:M14)</f>
         <v>2</v>
       </c>
-      <c r="O14" s="265"/>
+      <c r="O14" s="263"/>
     </row>
     <row r="15" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A15" s="237"/>
@@ -18461,22 +18446,22 @@
         <v>0</v>
       </c>
       <c r="I15" s="236"/>
-      <c r="J15" s="264" t="s">
+      <c r="J15" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="264" t="s">
+      <c r="K15" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L15" s="229">
         <f>F15+G15</f>
         <v>5</v>
       </c>
-      <c r="M15" s="266"/>
+      <c r="M15" s="264"/>
       <c r="N15" s="236">
         <f>SUM(J15:M15)</f>
         <v>5</v>
       </c>
-      <c r="O15" s="265"/>
+      <c r="O15" s="263"/>
     </row>
     <row r="16" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A16" s="237"/>
@@ -18496,22 +18481,22 @@
         <v>3</v>
       </c>
       <c r="I16" s="236"/>
-      <c r="J16" s="264" t="s">
+      <c r="J16" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="264" t="s">
+      <c r="K16" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L16" s="229">
         <f>F16+G16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="266"/>
+      <c r="M16" s="264"/>
       <c r="N16" s="236">
         <f>SUM(J16:M16)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="265"/>
+      <c r="O16" s="263"/>
     </row>
     <row r="17" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A17" s="237"/>
@@ -18533,10 +18518,10 @@
         <v>-113.5</v>
       </c>
       <c r="I17" s="236"/>
-      <c r="J17" s="264" t="s">
+      <c r="J17" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="264" t="s">
+      <c r="K17" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L17" s="236">
@@ -18566,20 +18551,20 @@
         <v>-1021.37</v>
       </c>
       <c r="I18" s="236"/>
-      <c r="J18" s="264" t="s">
+      <c r="J18" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="264" t="s">
+      <c r="K18" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L18" s="236">
         <v>-462.09</v>
       </c>
-      <c r="M18" s="266"/>
+      <c r="M18" s="264"/>
       <c r="N18" s="236">
         <v>-462.09</v>
       </c>
-      <c r="O18" s="265"/>
+      <c r="O18" s="263"/>
     </row>
     <row r="19" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A19" s="237"/>
@@ -18599,20 +18584,20 @@
         <v>0</v>
       </c>
       <c r="I19" s="236"/>
-      <c r="J19" s="264" t="s">
+      <c r="J19" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="264" t="s">
+      <c r="K19" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L19" s="236">
         <v>-11.71</v>
       </c>
-      <c r="M19" s="266"/>
+      <c r="M19" s="264"/>
       <c r="N19" s="236">
         <v>-11.71</v>
       </c>
-      <c r="O19" s="265"/>
+      <c r="O19" s="263"/>
     </row>
     <row r="20" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A20" s="237"/>
@@ -18632,20 +18617,20 @@
         <v>-0.12</v>
       </c>
       <c r="I20" s="236"/>
-      <c r="J20" s="264" t="s">
+      <c r="J20" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="264" t="s">
+      <c r="K20" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L20" s="236">
         <v>6.54</v>
       </c>
-      <c r="M20" s="266"/>
+      <c r="M20" s="264"/>
       <c r="N20" s="236">
         <v>6.54</v>
       </c>
-      <c r="O20" s="265"/>
+      <c r="O20" s="263"/>
     </row>
     <row r="21" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A21" s="237"/>
@@ -18667,22 +18652,22 @@
         <v>7</v>
       </c>
       <c r="I21" s="236"/>
-      <c r="J21" s="264" t="s">
+      <c r="J21" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="264" t="s">
+      <c r="K21" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L21" s="229">
         <f>SUM(F21:H21)</f>
         <v>10</v>
       </c>
-      <c r="M21" s="266"/>
+      <c r="M21" s="264"/>
       <c r="N21" s="236">
         <f>SUM(J21:M21)</f>
         <v>10</v>
       </c>
-      <c r="O21" s="265"/>
+      <c r="O21" s="263"/>
     </row>
     <row r="22" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A22" s="237"/>
@@ -18702,22 +18687,22 @@
         <v>4</v>
       </c>
       <c r="I22" s="236"/>
-      <c r="J22" s="264" t="s">
+      <c r="J22" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="264" t="s">
+      <c r="K22" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L22" s="229">
         <f>F22+G22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="266"/>
+      <c r="M22" s="264"/>
       <c r="N22" s="236">
         <f>SUM(J22:M22)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="265"/>
+      <c r="O22" s="263"/>
     </row>
     <row r="23" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A23" s="237"/>
@@ -18737,22 +18722,22 @@
         <v>0</v>
       </c>
       <c r="I23" s="236"/>
-      <c r="J23" s="264" t="s">
+      <c r="J23" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="264" t="s">
+      <c r="K23" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L23" s="229">
         <f>F23+G23</f>
         <v>3</v>
       </c>
-      <c r="M23" s="266"/>
+      <c r="M23" s="264"/>
       <c r="N23" s="236">
         <f>SUM(J23:M23)</f>
         <v>3</v>
       </c>
-      <c r="O23" s="265"/>
+      <c r="O23" s="263"/>
     </row>
     <row r="24" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A24" s="237"/>
@@ -18772,22 +18757,22 @@
         <v>3</v>
       </c>
       <c r="I24" s="236"/>
-      <c r="J24" s="264" t="s">
+      <c r="J24" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K24" s="264" t="s">
+      <c r="K24" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L24" s="229">
         <f>F24+G24</f>
         <v>0</v>
       </c>
-      <c r="M24" s="266"/>
+      <c r="M24" s="264"/>
       <c r="N24" s="236">
         <f>SUM(J24:M24)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="265"/>
+      <c r="O24" s="263"/>
     </row>
     <row r="25" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A25" s="237"/>
@@ -18809,20 +18794,20 @@
         <v>3.09</v>
       </c>
       <c r="I25" s="236"/>
-      <c r="J25" s="264" t="s">
+      <c r="J25" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K25" s="264" t="s">
+      <c r="K25" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L25" s="236">
         <v>2.15</v>
       </c>
-      <c r="M25" s="266"/>
+      <c r="M25" s="264"/>
       <c r="N25" s="236">
         <v>2.15</v>
       </c>
-      <c r="O25" s="265"/>
+      <c r="O25" s="263"/>
     </row>
     <row r="26" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A26" s="237"/>
@@ -18844,20 +18829,20 @@
         <v>4.91</v>
       </c>
       <c r="I26" s="236"/>
-      <c r="J26" s="264" t="s">
+      <c r="J26" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="264" t="s">
+      <c r="K26" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L26" s="236">
         <v>4.5</v>
       </c>
-      <c r="M26" s="266"/>
+      <c r="M26" s="264"/>
       <c r="N26" s="236">
         <v>4.5</v>
       </c>
-      <c r="O26" s="265"/>
+      <c r="O26" s="263"/>
     </row>
     <row r="27" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A27" s="237"/>
@@ -18879,20 +18864,20 @@
         <v>0</v>
       </c>
       <c r="I27" s="236"/>
-      <c r="J27" s="264" t="s">
+      <c r="J27" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K27" s="264" t="s">
+      <c r="K27" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L27" s="236">
         <v>0.7</v>
       </c>
-      <c r="M27" s="266"/>
+      <c r="M27" s="264"/>
       <c r="N27" s="236">
         <v>0.7</v>
       </c>
-      <c r="O27" s="265"/>
+      <c r="O27" s="263"/>
     </row>
     <row r="28" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A28" s="237"/>
@@ -18914,20 +18899,20 @@
         <v>0.4</v>
       </c>
       <c r="I28" s="236"/>
-      <c r="J28" s="264" t="s">
+      <c r="J28" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K28" s="264" t="s">
+      <c r="K28" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L28" s="236">
         <v>0.25</v>
       </c>
-      <c r="M28" s="266"/>
+      <c r="M28" s="264"/>
       <c r="N28" s="236">
         <v>0.25</v>
       </c>
-      <c r="O28" s="265"/>
+      <c r="O28" s="263"/>
     </row>
     <row r="29" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A29" s="237"/>
@@ -18953,23 +18938,23 @@
         <f>H5/IF((H5+H41)=0,1,(H5+H41))</f>
         <v>0</v>
       </c>
-      <c r="I29" s="268"/>
-      <c r="J29" s="264" t="s">
+      <c r="I29" s="253"/>
+      <c r="J29" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="264" t="s">
+      <c r="K29" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="259">
+      <c r="L29" s="266">
         <f>L5/IF((L5+L41)=0,1,(L5+L41))</f>
         <v>0.015</v>
       </c>
       <c r="M29" s="234"/>
-      <c r="N29" s="259">
+      <c r="N29" s="266">
         <f>N5/IF((N5+N41)=0,1,(N5+N41))</f>
         <v>0.015</v>
       </c>
-      <c r="O29" s="265"/>
+      <c r="O29" s="263"/>
     </row>
     <row r="30" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A30" s="237"/>
@@ -18990,23 +18975,23 @@
         <f>H6/IF((H6+H42)=0,1,(H6+H42))</f>
         <v>0</v>
       </c>
-      <c r="I30" s="268"/>
-      <c r="J30" s="264" t="s">
+      <c r="I30" s="253"/>
+      <c r="J30" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="264" t="s">
+      <c r="K30" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L30" s="253">
         <f>L6/IF((L6+L42)=0,1,(L6+L42))</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="M30" s="266"/>
+      <c r="M30" s="264"/>
       <c r="N30" s="253">
         <f>N6/IF((N6+N42)=0,1,(N6+N42))</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="O30" s="265"/>
+      <c r="O30" s="263"/>
     </row>
     <row r="31" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A31" s="237"/>
@@ -19027,23 +19012,23 @@
         <f>H7/IF((H7+H43)=0,1,(H7+H43))</f>
         <v>0</v>
       </c>
-      <c r="I31" s="268"/>
-      <c r="J31" s="264" t="s">
+      <c r="I31" s="253"/>
+      <c r="J31" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K31" s="264" t="s">
+      <c r="K31" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L31" s="253">
         <f>L7/IF((L7+L43)=0,1,(L7+L43))</f>
         <v>0</v>
       </c>
-      <c r="M31" s="266"/>
+      <c r="M31" s="264"/>
       <c r="N31" s="253">
         <f>N7/IF((N7+N43)=0,1,(N7+N43))</f>
         <v>0</v>
       </c>
-      <c r="O31" s="265"/>
+      <c r="O31" s="263"/>
     </row>
     <row r="32" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A32" s="237"/>
@@ -19064,23 +19049,23 @@
         <f>H8/IF((H8+H44)=0,1,(H8+H44))</f>
         <v>0</v>
       </c>
-      <c r="I32" s="268"/>
-      <c r="J32" s="264" t="s">
+      <c r="I32" s="253"/>
+      <c r="J32" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K32" s="264" t="s">
+      <c r="K32" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L32" s="253">
         <f>L8/IF((L8+L44)=0,1,(L8+L44))</f>
         <v>0</v>
       </c>
-      <c r="M32" s="266"/>
+      <c r="M32" s="264"/>
       <c r="N32" s="253">
         <f>N8/IF((N8+N44)=0,1,(N8+N44))</f>
         <v>0</v>
       </c>
-      <c r="O32" s="265"/>
+      <c r="O32" s="263"/>
     </row>
     <row r="33" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A33" s="237"/>
@@ -19102,10 +19087,10 @@
         <v>5</v>
       </c>
       <c r="I33" s="235"/>
-      <c r="J33" s="264" t="s">
+      <c r="J33" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K33" s="264" t="s">
+      <c r="K33" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L33" s="229">
@@ -19117,7 +19102,7 @@
         <f>SUM(J33:M33)</f>
         <v>7</v>
       </c>
-      <c r="O33" s="265"/>
+      <c r="O33" s="263"/>
     </row>
     <row r="34" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A34" s="237"/>
@@ -19137,22 +19122,22 @@
         <v>4</v>
       </c>
       <c r="I34" s="236"/>
-      <c r="J34" s="264" t="s">
+      <c r="J34" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K34" s="264" t="s">
+      <c r="K34" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L34" s="229">
         <f t="shared" ref="L34:L44" si="0">F34+G34</f>
         <v>1</v>
       </c>
-      <c r="M34" s="266"/>
+      <c r="M34" s="264"/>
       <c r="N34" s="236">
         <f t="shared" ref="N34:N44" si="1">SUM(J34:M34)</f>
         <v>1</v>
       </c>
-      <c r="O34" s="265"/>
+      <c r="O34" s="263"/>
     </row>
     <row r="35" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A35" s="237"/>
@@ -19172,22 +19157,22 @@
         <v>0</v>
       </c>
       <c r="I35" s="236"/>
-      <c r="J35" s="264" t="s">
+      <c r="J35" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="264" t="s">
+      <c r="K35" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L35" s="229">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M35" s="266"/>
+      <c r="M35" s="264"/>
       <c r="N35" s="236">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O35" s="265"/>
+      <c r="O35" s="263"/>
     </row>
     <row r="36" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A36" s="237"/>
@@ -19207,22 +19192,22 @@
         <v>1</v>
       </c>
       <c r="I36" s="236"/>
-      <c r="J36" s="264" t="s">
+      <c r="J36" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K36" s="264" t="s">
+      <c r="K36" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L36" s="229">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="266"/>
+      <c r="M36" s="264"/>
       <c r="N36" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O36" s="265"/>
+      <c r="O36" s="263"/>
     </row>
     <row r="37" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A37" s="237"/>
@@ -19244,22 +19229,22 @@
         <v>0</v>
       </c>
       <c r="I37" s="236"/>
-      <c r="J37" s="264" t="s">
+      <c r="J37" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="264" t="s">
+      <c r="K37" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L37" s="229">
         <f>SUM(F37:H37)</f>
         <v>0</v>
       </c>
-      <c r="M37" s="266"/>
+      <c r="M37" s="264"/>
       <c r="N37" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O37" s="265"/>
+      <c r="O37" s="263"/>
     </row>
     <row r="38" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A38" s="237"/>
@@ -19279,22 +19264,22 @@
         <v>0</v>
       </c>
       <c r="I38" s="236"/>
-      <c r="J38" s="264" t="s">
+      <c r="J38" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="264" t="s">
+      <c r="K38" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L38" s="229">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M38" s="266"/>
+      <c r="M38" s="264"/>
       <c r="N38" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O38" s="265"/>
+      <c r="O38" s="263"/>
     </row>
     <row r="39" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A39" s="237"/>
@@ -19314,22 +19299,22 @@
         <v>0</v>
       </c>
       <c r="I39" s="236"/>
-      <c r="J39" s="264" t="s">
+      <c r="J39" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K39" s="264" t="s">
+      <c r="K39" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L39" s="229">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="266"/>
+      <c r="M39" s="264"/>
       <c r="N39" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O39" s="265"/>
+      <c r="O39" s="263"/>
     </row>
     <row r="40" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A40" s="237"/>
@@ -19349,22 +19334,22 @@
         <v>0</v>
       </c>
       <c r="I40" s="236"/>
-      <c r="J40" s="264" t="s">
+      <c r="J40" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K40" s="264" t="s">
+      <c r="K40" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L40" s="229">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="266"/>
+      <c r="M40" s="264"/>
       <c r="N40" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O40" s="265"/>
+      <c r="O40" s="263"/>
     </row>
     <row r="41" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A41" s="237"/>
@@ -19386,22 +19371,22 @@
         <v>155</v>
       </c>
       <c r="I41" s="235"/>
-      <c r="J41" s="264" t="s">
+      <c r="J41" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K41" s="264" t="s">
+      <c r="K41" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L41" s="229">
         <f>SUM(F41:H41)</f>
         <v>197</v>
       </c>
-      <c r="M41" s="266"/>
+      <c r="M41" s="264"/>
       <c r="N41" s="236">
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
-      <c r="O41" s="265"/>
+      <c r="O41" s="263"/>
     </row>
     <row r="42" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A42" s="237"/>
@@ -19421,22 +19406,22 @@
         <v>144</v>
       </c>
       <c r="I42" s="236"/>
-      <c r="J42" s="264" t="s">
+      <c r="J42" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K42" s="264" t="s">
+      <c r="K42" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L42" s="229">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M42" s="266"/>
+      <c r="M42" s="264"/>
       <c r="N42" s="236">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O42" s="265"/>
+      <c r="O42" s="263"/>
     </row>
     <row r="43" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A43" s="237"/>
@@ -19456,22 +19441,22 @@
         <v>0</v>
       </c>
       <c r="I43" s="236"/>
-      <c r="J43" s="264" t="s">
+      <c r="J43" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K43" s="264" t="s">
+      <c r="K43" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L43" s="229">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M43" s="266"/>
+      <c r="M43" s="264"/>
       <c r="N43" s="236">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="O43" s="265"/>
+      <c r="O43" s="263"/>
     </row>
     <row r="44" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A44" s="237"/>
@@ -19491,22 +19476,22 @@
         <v>11</v>
       </c>
       <c r="I44" s="236"/>
-      <c r="J44" s="264" t="s">
+      <c r="J44" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K44" s="264" t="s">
+      <c r="K44" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L44" s="229">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M44" s="266"/>
+      <c r="M44" s="264"/>
       <c r="N44" s="236">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O44" s="265"/>
+      <c r="O44" s="263"/>
     </row>
     <row r="45" s="177" customFormat="1" ht="23" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A45" s="237"/>
@@ -19528,20 +19513,20 @@
         <v>78</v>
       </c>
       <c r="I45" s="256"/>
-      <c r="J45" s="264" t="s">
+      <c r="J45" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K45" s="264" t="s">
+      <c r="K45" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L45" s="256" t="s">
         <v>78</v>
       </c>
-      <c r="M45" s="266"/>
+      <c r="M45" s="264"/>
       <c r="N45" s="256" t="s">
         <v>78</v>
       </c>
-      <c r="O45" s="267"/>
+      <c r="O45" s="265"/>
     </row>
     <row r="46" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A46" s="237"/>
@@ -19561,20 +19546,20 @@
         <v>40</v>
       </c>
       <c r="I46" s="236"/>
-      <c r="J46" s="264" t="s">
+      <c r="J46" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K46" s="264" t="s">
+      <c r="K46" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L46" s="236">
         <v>40</v>
       </c>
-      <c r="M46" s="266"/>
+      <c r="M46" s="264"/>
       <c r="N46" s="236">
         <v>40</v>
       </c>
-      <c r="O46" s="269"/>
+      <c r="O46" s="267"/>
     </row>
     <row r="47" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A47" s="237"/>
@@ -19594,20 +19579,20 @@
         <v>4</v>
       </c>
       <c r="I47" s="236"/>
-      <c r="J47" s="264" t="s">
+      <c r="J47" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K47" s="264" t="s">
+      <c r="K47" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L47" s="236">
         <v>4</v>
       </c>
-      <c r="M47" s="266"/>
+      <c r="M47" s="264"/>
       <c r="N47" s="236">
         <v>4</v>
       </c>
-      <c r="O47" s="269"/>
+      <c r="O47" s="267"/>
     </row>
     <row r="48" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A48" s="237"/>
@@ -19627,20 +19612,20 @@
         <v>2</v>
       </c>
       <c r="I48" s="236"/>
-      <c r="J48" s="264" t="s">
+      <c r="J48" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K48" s="264" t="s">
+      <c r="K48" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L48" s="236">
         <v>2</v>
       </c>
-      <c r="M48" s="266"/>
+      <c r="M48" s="264"/>
       <c r="N48" s="236">
         <v>2</v>
       </c>
-      <c r="O48" s="269"/>
+      <c r="O48" s="267"/>
     </row>
     <row r="49" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A49" s="237"/>
@@ -19662,22 +19647,22 @@
         <v>2</v>
       </c>
       <c r="I49" s="236"/>
-      <c r="J49" s="264" t="s">
+      <c r="J49" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K49" s="264" t="s">
+      <c r="K49" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L49" s="229">
         <f>SUM(F49:H49)</f>
         <v>2</v>
       </c>
-      <c r="M49" s="270"/>
+      <c r="M49" s="268"/>
       <c r="N49" s="236">
         <f>SUM(J49:M49)</f>
         <v>2</v>
       </c>
-      <c r="O49" s="265"/>
+      <c r="O49" s="263"/>
     </row>
     <row r="50" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A50" s="237"/>
@@ -19697,21 +19682,21 @@
         <v>2</v>
       </c>
       <c r="I50" s="236"/>
-      <c r="J50" s="264" t="s">
+      <c r="J50" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K50" s="264" t="s">
+      <c r="K50" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L50" s="229">
         <v>0</v>
       </c>
-      <c r="M50" s="266"/>
+      <c r="M50" s="264"/>
       <c r="N50" s="236">
         <f>SUM(J50:M50)</f>
         <v>0</v>
       </c>
-      <c r="O50" s="265"/>
+      <c r="O50" s="263"/>
     </row>
     <row r="51" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A51" s="237"/>
@@ -19731,21 +19716,21 @@
         <v>0</v>
       </c>
       <c r="I51" s="236"/>
-      <c r="J51" s="264" t="s">
+      <c r="J51" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K51" s="264" t="s">
+      <c r="K51" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L51" s="229">
         <v>0</v>
       </c>
-      <c r="M51" s="266"/>
+      <c r="M51" s="264"/>
       <c r="N51" s="236">
         <f>SUM(J51:M51)</f>
         <v>0</v>
       </c>
-      <c r="O51" s="265"/>
+      <c r="O51" s="263"/>
     </row>
     <row r="52" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A52" s="237"/>
@@ -19765,21 +19750,21 @@
         <v>0</v>
       </c>
       <c r="I52" s="236"/>
-      <c r="J52" s="264" t="s">
+      <c r="J52" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K52" s="264" t="s">
+      <c r="K52" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L52" s="229">
         <v>0</v>
       </c>
-      <c r="M52" s="266"/>
+      <c r="M52" s="264"/>
       <c r="N52" s="236">
         <f>SUM(J52:M52)</f>
         <v>0</v>
       </c>
-      <c r="O52" s="265"/>
+      <c r="O52" s="263"/>
     </row>
     <row r="53" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A53" s="237"/>
@@ -19794,33 +19779,34 @@
       </c>
       <c r="E53" s="196"/>
       <c r="F53" s="246">
-        <v>1.36</v>
+        <f t="shared" ref="F53:F60" si="2">F65/(IF(F61=0,1,F61))</f>
+        <v>0.75</v>
       </c>
       <c r="G53" s="246">
-        <f t="shared" ref="G53:G60" si="2">G65/(IF(G61=0,1,G61))</f>
-        <v>1</v>
+        <f t="shared" ref="G53:G60" si="3">G65/(IF(G61=0,1,G61))</f>
+        <v>0.8125</v>
       </c>
       <c r="H53" s="246">
-        <f t="shared" ref="H53:H60" si="3">H65/(IF(H61=0,1,H61))</f>
+        <f t="shared" ref="H53:H60" si="4">H65/(IF(H61=0,1,H61))</f>
         <v>0.938775510204082</v>
       </c>
-      <c r="I53" s="271"/>
-      <c r="J53" s="264" t="s">
+      <c r="I53" s="246"/>
+      <c r="J53" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K53" s="264" t="s">
+      <c r="K53" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L53" s="246">
         <f>L65/(IF(L61=0,1,L61))</f>
-        <v>1.04166666666667</v>
+        <v>0.876543209876543</v>
       </c>
       <c r="M53" s="246"/>
       <c r="N53" s="246">
-        <f t="shared" ref="N53:N60" si="4">N65/(IF(N61=0,1,N61))</f>
-        <v>1.04166666666667</v>
-      </c>
-      <c r="O53" s="267"/>
+        <f t="shared" ref="N53:N60" si="5">N65/(IF(N61=0,1,N61))</f>
+        <v>0.876543209876543</v>
+      </c>
+      <c r="O53" s="265"/>
     </row>
     <row r="54" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A54" s="237"/>
@@ -19831,33 +19817,34 @@
       <c r="D54" s="228"/>
       <c r="E54" s="228"/>
       <c r="F54" s="246">
-        <v>0.8</v>
+        <f t="shared" si="2"/>
+        <v>0.833333333333333</v>
       </c>
       <c r="G54" s="246">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="H54" s="246">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H54" s="246">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I54" s="271"/>
-      <c r="J54" s="264" t="s">
+      <c r="I54" s="246"/>
+      <c r="J54" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K54" s="264" t="s">
+      <c r="K54" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L54" s="246">
         <f>L66/(IF(L62=0,1,L62))</f>
-        <v>1.35714285714286</v>
+        <v>0.772727272727273</v>
       </c>
       <c r="M54" s="229"/>
       <c r="N54" s="246">
-        <f t="shared" si="4"/>
-        <v>1.35714285714286</v>
-      </c>
-      <c r="O54" s="265"/>
+        <f t="shared" si="5"/>
+        <v>0.772727272727273</v>
+      </c>
+      <c r="O54" s="263"/>
     </row>
     <row r="55" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A55" s="237"/>
@@ -19868,33 +19855,34 @@
       <c r="D55" s="228"/>
       <c r="E55" s="228"/>
       <c r="F55" s="246">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="G55" s="246">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H55" s="246">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="271"/>
-      <c r="J55" s="264" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="246"/>
+      <c r="J55" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K55" s="264" t="s">
+      <c r="K55" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L55" s="246">
         <f>L67/(IF(L63=0,1,L63))</f>
-        <v>1</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="M55" s="229"/>
       <c r="N55" s="246">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O55" s="265"/>
+        <f t="shared" si="5"/>
+        <v>0.857142857142857</v>
+      </c>
+      <c r="O55" s="263"/>
     </row>
     <row r="56" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A56" s="237"/>
@@ -19905,33 +19893,34 @@
       <c r="D56" s="228"/>
       <c r="E56" s="228"/>
       <c r="F56" s="246">
-        <v>2.5</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="G56" s="246">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H56" s="246">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I56" s="271"/>
-      <c r="J56" s="264" t="s">
+      <c r="H56" s="246">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I56" s="246"/>
+      <c r="J56" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K56" s="264" t="s">
+      <c r="K56" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L56" s="246">
         <f>L68/(IF(L64=0,1,L64))</f>
-        <v>1.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="M56" s="229"/>
       <c r="N56" s="246">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="O56" s="265"/>
+        <f t="shared" si="5"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="O56" s="263"/>
     </row>
     <row r="57" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A57" s="237"/>
@@ -19943,34 +19932,35 @@
         <v>84</v>
       </c>
       <c r="E57" s="258"/>
-      <c r="F57" s="259">
-        <v>0.57</v>
+      <c r="F57" s="246">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G57" s="246">
-        <f t="shared" si="2"/>
-        <v>0.866666666666667</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H57" s="246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91304347826087</v>
       </c>
-      <c r="I57" s="271"/>
-      <c r="J57" s="264" t="s">
+      <c r="I57" s="246"/>
+      <c r="J57" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K57" s="264" t="s">
+      <c r="K57" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L57" s="246">
-        <f t="shared" ref="L57:L60" si="5">L69/(IF(L65=0,1,L65))</f>
-        <v>0.986666666666667</v>
+        <f t="shared" ref="L57:L60" si="6">L69/(IF(L65=0,1,L65))</f>
+        <v>0.591549295774648</v>
       </c>
       <c r="M57" s="246"/>
       <c r="N57" s="246">
-        <f t="shared" si="4"/>
-        <v>0.986666666666667</v>
-      </c>
-      <c r="O57" s="272"/>
+        <f t="shared" si="5"/>
+        <v>0.591549295774648</v>
+      </c>
+      <c r="O57" s="269"/>
     </row>
     <row r="58" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A58" s="237"/>
@@ -19981,33 +19971,34 @@
       <c r="D58" s="228"/>
       <c r="E58" s="228"/>
       <c r="F58" s="246">
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G58" s="246">
-        <f t="shared" si="2"/>
-        <v>0.777777777777778</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H58" s="246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.918918918918919</v>
       </c>
-      <c r="I58" s="271"/>
-      <c r="J58" s="264" t="s">
+      <c r="I58" s="246"/>
+      <c r="J58" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K58" s="264" t="s">
+      <c r="K58" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L58" s="246">
-        <f t="shared" si="5"/>
-        <v>0.789473684210526</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="M58" s="229"/>
       <c r="N58" s="246">
-        <f t="shared" si="4"/>
-        <v>0.789473684210526</v>
-      </c>
-      <c r="O58" s="272"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="269"/>
     </row>
     <row r="59" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A59" s="237"/>
@@ -20018,33 +20009,34 @@
       <c r="D59" s="228"/>
       <c r="E59" s="228"/>
       <c r="F59" s="246">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G59" s="246">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H59" s="246">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="271"/>
-      <c r="J59" s="264" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="246"/>
+      <c r="J59" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K59" s="264" t="s">
+      <c r="K59" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L59" s="246">
-        <f t="shared" si="5"/>
-        <v>1.57142857142857</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="M59" s="229"/>
       <c r="N59" s="246">
-        <f t="shared" si="4"/>
-        <v>1.57142857142857</v>
-      </c>
-      <c r="O59" s="272"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="269"/>
     </row>
     <row r="60" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A60" s="237"/>
@@ -20055,70 +20047,71 @@
       <c r="D60" s="228"/>
       <c r="E60" s="228"/>
       <c r="F60" s="246">
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G60" s="246">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H60" s="246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.888888888888889</v>
       </c>
-      <c r="I60" s="271"/>
-      <c r="J60" s="264" t="s">
+      <c r="I60" s="246"/>
+      <c r="J60" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K60" s="264" t="s">
+      <c r="K60" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L60" s="246">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="M60" s="229"/>
       <c r="N60" s="246">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O60" s="272"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="269"/>
     </row>
     <row r="61" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A61" s="237"/>
       <c r="B61" s="251"/>
-      <c r="C61" s="260" t="s">
+      <c r="C61" s="259" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="261" t="s">
+      <c r="D61" s="260" t="s">
         <v>66</v>
       </c>
-      <c r="E61" s="261"/>
-      <c r="F61" s="229">
-        <v>8</v>
+      <c r="E61" s="260"/>
+      <c r="F61" s="236">
+        <v>16</v>
       </c>
       <c r="G61" s="236">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H61" s="236">
         <v>49</v>
       </c>
       <c r="I61" s="236"/>
-      <c r="J61" s="264" t="s">
+      <c r="J61" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K61" s="264" t="s">
+      <c r="K61" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L61" s="229">
         <f>SUM(F61:H61)</f>
-        <v>72</v>
-      </c>
-      <c r="M61" s="266"/>
+        <v>81</v>
+      </c>
+      <c r="M61" s="264"/>
       <c r="N61" s="236">
         <f>SUM(J61:M61)</f>
-        <v>72</v>
-      </c>
-      <c r="O61" s="272"/>
+        <v>81</v>
+      </c>
+      <c r="O61" s="269"/>
     </row>
     <row r="62" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A62" s="237"/>
@@ -20128,32 +20121,32 @@
       </c>
       <c r="D62" s="228"/>
       <c r="E62" s="228"/>
-      <c r="F62" s="229">
-        <v>5</v>
+      <c r="F62" s="236">
+        <v>12</v>
       </c>
       <c r="G62" s="236">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H62" s="236">
         <v>37</v>
       </c>
       <c r="I62" s="236"/>
-      <c r="J62" s="264" t="s">
+      <c r="J62" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K62" s="264" t="s">
+      <c r="K62" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L62" s="229">
-        <f t="shared" ref="L62:L76" si="6">F62+G62</f>
-        <v>14</v>
-      </c>
-      <c r="M62" s="266"/>
+        <f t="shared" ref="L62:L76" si="7">F62+G62</f>
+        <v>22</v>
+      </c>
+      <c r="M62" s="264"/>
       <c r="N62" s="236">
-        <f t="shared" ref="N62:N76" si="7">SUM(J62:M62)</f>
-        <v>14</v>
-      </c>
-      <c r="O62" s="272"/>
+        <f t="shared" ref="N62:N76" si="8">SUM(J62:M62)</f>
+        <v>22</v>
+      </c>
+      <c r="O62" s="269"/>
     </row>
     <row r="63" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A63" s="237"/>
@@ -20163,7 +20156,7 @@
       </c>
       <c r="D63" s="228"/>
       <c r="E63" s="228"/>
-      <c r="F63" s="229">
+      <c r="F63" s="236">
         <v>2</v>
       </c>
       <c r="G63" s="236">
@@ -20173,22 +20166,22 @@
         <v>3</v>
       </c>
       <c r="I63" s="236"/>
-      <c r="J63" s="264" t="s">
+      <c r="J63" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K63" s="264" t="s">
+      <c r="K63" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L63" s="229">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="M63" s="266"/>
-      <c r="N63" s="236">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="O63" s="272"/>
+      <c r="M63" s="264"/>
+      <c r="N63" s="236">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="O63" s="269"/>
     </row>
     <row r="64" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A64" s="237"/>
@@ -20198,8 +20191,8 @@
       </c>
       <c r="D64" s="228"/>
       <c r="E64" s="228"/>
-      <c r="F64" s="229">
-        <v>1</v>
+      <c r="F64" s="236">
+        <v>2</v>
       </c>
       <c r="G64" s="236">
         <v>1</v>
@@ -20208,59 +20201,59 @@
         <v>9</v>
       </c>
       <c r="I64" s="236"/>
-      <c r="J64" s="264" t="s">
+      <c r="J64" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K64" s="264" t="s">
+      <c r="K64" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L64" s="229">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M64" s="266"/>
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M64" s="264"/>
       <c r="N64" s="236">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="O64" s="272"/>
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="O64" s="269"/>
     </row>
     <row r="65" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A65" s="237"/>
       <c r="B65" s="251"/>
-      <c r="C65" s="260" t="s">
+      <c r="C65" s="259" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="261" t="s">
+      <c r="D65" s="260" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="261"/>
-      <c r="F65" s="273">
-        <v>14</v>
+      <c r="E65" s="260"/>
+      <c r="F65" s="236">
+        <v>12</v>
       </c>
       <c r="G65" s="236">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H65" s="236">
         <v>46</v>
       </c>
       <c r="I65" s="236"/>
-      <c r="J65" s="264" t="s">
+      <c r="J65" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K65" s="264" t="s">
+      <c r="K65" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L65" s="229">
         <f>SUM(F65:H65)</f>
-        <v>75</v>
-      </c>
-      <c r="M65" s="295"/>
+        <v>71</v>
+      </c>
+      <c r="M65" s="290"/>
       <c r="N65" s="236">
-        <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="O65" s="272"/>
+        <f t="shared" si="8"/>
+        <v>71</v>
+      </c>
+      <c r="O65" s="269"/>
     </row>
     <row r="66" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A66" s="237"/>
@@ -20270,32 +20263,32 @@
       </c>
       <c r="D66" s="228"/>
       <c r="E66" s="228"/>
-      <c r="F66" s="229">
+      <c r="F66" s="236">
         <v>10</v>
       </c>
       <c r="G66" s="236">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H66" s="236">
         <v>37</v>
       </c>
       <c r="I66" s="236"/>
-      <c r="J66" s="264" t="s">
+      <c r="J66" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K66" s="264" t="s">
+      <c r="K66" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L66" s="229">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="M66" s="266"/>
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="M66" s="264"/>
       <c r="N66" s="236">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="O66" s="272"/>
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="O66" s="269"/>
     </row>
     <row r="67" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A67" s="237"/>
@@ -20305,8 +20298,8 @@
       </c>
       <c r="D67" s="228"/>
       <c r="E67" s="228"/>
-      <c r="F67" s="229">
-        <v>2</v>
+      <c r="F67" s="236">
+        <v>1</v>
       </c>
       <c r="G67" s="236">
         <v>5</v>
@@ -20315,22 +20308,22 @@
         <v>0</v>
       </c>
       <c r="I67" s="236"/>
-      <c r="J67" s="264" t="s">
+      <c r="J67" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K67" s="264" t="s">
+      <c r="K67" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L67" s="229">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="M67" s="266"/>
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M67" s="264"/>
       <c r="N67" s="236">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="O67" s="272"/>
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="O67" s="269"/>
     </row>
     <row r="68" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A68" s="237"/>
@@ -20340,8 +20333,8 @@
       </c>
       <c r="D68" s="228"/>
       <c r="E68" s="228"/>
-      <c r="F68" s="229">
-        <v>2</v>
+      <c r="F68" s="236">
+        <v>1</v>
       </c>
       <c r="G68" s="236">
         <v>1</v>
@@ -20350,59 +20343,59 @@
         <v>9</v>
       </c>
       <c r="I68" s="236"/>
-      <c r="J68" s="264" t="s">
+      <c r="J68" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K68" s="264" t="s">
+      <c r="K68" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L68" s="229">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M68" s="266"/>
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M68" s="264"/>
       <c r="N68" s="236">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="O68" s="272"/>
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="O68" s="269"/>
     </row>
     <row r="69" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A69" s="237"/>
       <c r="B69" s="251"/>
-      <c r="C69" s="260" t="s">
+      <c r="C69" s="259" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="261" t="s">
+      <c r="D69" s="260" t="s">
         <v>66</v>
       </c>
-      <c r="E69" s="261"/>
-      <c r="F69" s="229">
-        <v>19</v>
+      <c r="E69" s="260"/>
+      <c r="F69" s="236">
+        <v>0</v>
       </c>
       <c r="G69" s="236">
-        <v>13</v>
-      </c>
-      <c r="H69" s="274">
+        <v>0</v>
+      </c>
+      <c r="H69" s="270">
         <v>42</v>
       </c>
-      <c r="I69" s="274"/>
-      <c r="J69" s="264" t="s">
+      <c r="I69" s="270"/>
+      <c r="J69" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K69" s="264" t="s">
+      <c r="K69" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L69" s="229">
         <f>SUM(F69:H69)</f>
-        <v>74</v>
-      </c>
-      <c r="M69" s="266"/>
+        <v>42</v>
+      </c>
+      <c r="M69" s="264"/>
       <c r="N69" s="236">
-        <f t="shared" si="7"/>
-        <v>74</v>
-      </c>
-      <c r="O69" s="272"/>
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="O69" s="269"/>
     </row>
     <row r="70" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A70" s="237"/>
@@ -20412,32 +20405,32 @@
       </c>
       <c r="D70" s="228"/>
       <c r="E70" s="228"/>
-      <c r="F70" s="229">
-        <v>8</v>
+      <c r="F70" s="236">
+        <v>0</v>
       </c>
       <c r="G70" s="236">
-        <v>7</v>
-      </c>
-      <c r="H70" s="274">
+        <v>0</v>
+      </c>
+      <c r="H70" s="270">
         <v>34</v>
       </c>
-      <c r="I70" s="274"/>
-      <c r="J70" s="264" t="s">
+      <c r="I70" s="270"/>
+      <c r="J70" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K70" s="264" t="s">
+      <c r="K70" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L70" s="229">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="M70" s="266"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="264"/>
       <c r="N70" s="236">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="O70" s="272"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="269"/>
     </row>
     <row r="71" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A71" s="237"/>
@@ -20447,32 +20440,32 @@
       </c>
       <c r="D71" s="228"/>
       <c r="E71" s="228"/>
-      <c r="F71" s="275">
-        <v>6</v>
+      <c r="F71" s="236">
+        <v>0</v>
       </c>
       <c r="G71" s="236">
-        <v>5</v>
-      </c>
-      <c r="H71" s="274">
-        <v>0</v>
-      </c>
-      <c r="I71" s="274"/>
-      <c r="J71" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71" s="270">
+        <v>0</v>
+      </c>
+      <c r="I71" s="270"/>
+      <c r="J71" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K71" s="264" t="s">
+      <c r="K71" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L71" s="229">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="M71" s="266"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="264"/>
       <c r="N71" s="236">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="O71" s="272"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="269"/>
     </row>
     <row r="72" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A72" s="237"/>
@@ -20482,69 +20475,72 @@
       </c>
       <c r="D72" s="228"/>
       <c r="E72" s="228"/>
-      <c r="F72" s="229">
-        <v>5</v>
+      <c r="F72" s="236">
+        <v>0</v>
       </c>
       <c r="G72" s="236">
-        <v>1</v>
-      </c>
-      <c r="H72" s="274">
+        <v>0</v>
+      </c>
+      <c r="H72" s="270">
         <v>8</v>
       </c>
-      <c r="I72" s="274"/>
-      <c r="J72" s="264" t="s">
+      <c r="I72" s="270"/>
+      <c r="J72" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K72" s="264" t="s">
+      <c r="K72" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L72" s="229">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="M72" s="266"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="264"/>
       <c r="N72" s="236">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="O72" s="272"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="269"/>
     </row>
     <row r="73" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A73" s="237"/>
       <c r="B73" s="251"/>
-      <c r="C73" s="260" t="s">
+      <c r="C73" s="259" t="s">
         <v>88</v>
       </c>
-      <c r="D73" s="261" t="s">
+      <c r="D73" s="260" t="s">
         <v>66</v>
       </c>
-      <c r="E73" s="261"/>
-      <c r="F73" s="257">
+      <c r="E73" s="260"/>
+      <c r="F73" s="236">
+        <f t="shared" ref="F73:F76" si="9">F61-F65</f>
         <v>4</v>
       </c>
       <c r="G73" s="236">
-        <v>14</v>
+        <f t="shared" ref="G73:G76" si="10">G61-G65</f>
+        <v>3</v>
       </c>
       <c r="H73" s="236">
-        <v>0</v>
+        <f t="shared" ref="H73:H76" si="11">H61-H65</f>
+        <v>3</v>
       </c>
       <c r="I73" s="236"/>
-      <c r="J73" s="264" t="s">
+      <c r="J73" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K73" s="264" t="s">
+      <c r="K73" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L73" s="229">
         <f>SUM(F73:H73)</f>
-        <v>18</v>
-      </c>
-      <c r="M73" s="296"/>
+        <v>10</v>
+      </c>
+      <c r="M73" s="291"/>
       <c r="N73" s="236">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="O73" s="272"/>
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="O73" s="269"/>
     </row>
     <row r="74" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A74" s="237"/>
@@ -20554,32 +20550,35 @@
       </c>
       <c r="D74" s="228"/>
       <c r="E74" s="228"/>
-      <c r="F74" s="229">
-        <v>0</v>
+      <c r="F74" s="236">
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="G74" s="236">
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="H74" s="236">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I74" s="236"/>
-      <c r="J74" s="264" t="s">
+      <c r="J74" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K74" s="264" t="s">
+      <c r="K74" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L74" s="229">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="M74" s="266"/>
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M74" s="264"/>
       <c r="N74" s="236">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="O74" s="272"/>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="O74" s="269"/>
     </row>
     <row r="75" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A75" s="237"/>
@@ -20589,32 +20588,35 @@
       </c>
       <c r="D75" s="228"/>
       <c r="E75" s="228"/>
-      <c r="F75" s="229">
-        <v>4</v>
+      <c r="F75" s="236">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="G75" s="236">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="236">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="I75" s="236"/>
+      <c r="J75" s="262" t="s">
+        <v>53</v>
+      </c>
+      <c r="K75" s="262" t="s">
+        <v>53</v>
+      </c>
+      <c r="L75" s="229">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="H75" s="236">
-        <v>0</v>
-      </c>
-      <c r="I75" s="236"/>
-      <c r="J75" s="264" t="s">
-        <v>53</v>
-      </c>
-      <c r="K75" s="264" t="s">
-        <v>53</v>
-      </c>
-      <c r="L75" s="229">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="M75" s="266"/>
+      <c r="M75" s="264"/>
       <c r="N75" s="236">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="O75" s="272"/>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O75" s="269"/>
     </row>
     <row r="76" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A76" s="237"/>
@@ -20624,43 +20626,46 @@
       </c>
       <c r="D76" s="228"/>
       <c r="E76" s="228"/>
-      <c r="F76" s="229">
-        <v>0</v>
+      <c r="F76" s="236">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="G76" s="236">
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="H76" s="236">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I76" s="236"/>
-      <c r="J76" s="264" t="s">
+      <c r="J76" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K76" s="264" t="s">
+      <c r="K76" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L76" s="229">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M76" s="266"/>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M76" s="264"/>
       <c r="N76" s="236">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="O76" s="272"/>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O76" s="269"/>
     </row>
     <row r="77" s="177" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A77" s="237"/>
       <c r="B77" s="251"/>
-      <c r="C77" s="260" t="s">
+      <c r="C77" s="259" t="s">
         <v>89</v>
       </c>
-      <c r="D77" s="261" t="s">
+      <c r="D77" s="260" t="s">
         <v>66</v>
       </c>
-      <c r="E77" s="261"/>
+      <c r="E77" s="260"/>
       <c r="F77" s="257">
         <v>12</v>
       </c>
@@ -20671,20 +20676,20 @@
         <v>11</v>
       </c>
       <c r="I77" s="236"/>
-      <c r="J77" s="264" t="s">
+      <c r="J77" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="K77" s="264" t="s">
+      <c r="K77" s="262" t="s">
         <v>53</v>
       </c>
       <c r="L77" s="236">
         <v>11</v>
       </c>
-      <c r="M77" s="296"/>
+      <c r="M77" s="291"/>
       <c r="N77" s="236">
         <v>11</v>
       </c>
-      <c r="O77" s="272"/>
+      <c r="O77" s="269"/>
     </row>
     <row r="78" s="177" customFormat="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A78" s="237"/>
@@ -20703,17 +20708,17 @@
       <c r="H78" s="236">
         <v>7</v>
       </c>
-      <c r="I78" s="297"/>
-      <c r="J78" s="298"/>
-      <c r="K78" s="266"/>
+      <c r="I78" s="292"/>
+      <c r="J78" s="293"/>
+      <c r="K78" s="264"/>
       <c r="L78" s="236">
         <v>7</v>
       </c>
-      <c r="M78" s="266"/>
+      <c r="M78" s="264"/>
       <c r="N78" s="236">
         <v>7</v>
       </c>
-      <c r="O78" s="299"/>
+      <c r="O78" s="294"/>
     </row>
     <row r="79" s="177" customFormat="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A79" s="237"/>
@@ -20732,17 +20737,17 @@
       <c r="H79" s="236">
         <v>4</v>
       </c>
-      <c r="I79" s="297"/>
-      <c r="J79" s="298"/>
-      <c r="K79" s="266"/>
+      <c r="I79" s="292"/>
+      <c r="J79" s="293"/>
+      <c r="K79" s="264"/>
       <c r="L79" s="236">
         <v>4</v>
       </c>
-      <c r="M79" s="266"/>
+      <c r="M79" s="264"/>
       <c r="N79" s="236">
         <v>4</v>
       </c>
-      <c r="O79" s="299"/>
+      <c r="O79" s="294"/>
     </row>
     <row r="80" s="177" customFormat="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A80" s="237"/>
@@ -20761,17 +20766,17 @@
       <c r="H80" s="236">
         <v>0</v>
       </c>
-      <c r="I80" s="297"/>
-      <c r="J80" s="298"/>
-      <c r="K80" s="266"/>
+      <c r="I80" s="292"/>
+      <c r="J80" s="293"/>
+      <c r="K80" s="264"/>
       <c r="L80" s="236">
         <v>0</v>
       </c>
-      <c r="M80" s="266"/>
+      <c r="M80" s="264"/>
       <c r="N80" s="236">
         <v>0</v>
       </c>
-      <c r="O80" s="299"/>
+      <c r="O80" s="294"/>
     </row>
     <row r="81" s="216" customFormat="1" ht="27.95" customHeight="1" collapsed="1" spans="1:16">
       <c r="A81" s="224" t="s">
@@ -20789,265 +20794,265 @@
       <c r="K81" s="224"/>
       <c r="L81" s="224"/>
       <c r="M81" s="224"/>
-      <c r="N81" s="262"/>
-      <c r="O81" s="262"/>
-      <c r="P81" s="300"/>
+      <c r="N81" s="261"/>
+      <c r="O81" s="261"/>
+      <c r="P81" s="295"/>
     </row>
     <row r="82" s="217" customFormat="1" ht="18" hidden="1" outlineLevel="2" spans="1:16">
-      <c r="A82" s="276" t="s">
+      <c r="A82" s="271" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="277"/>
-      <c r="C82" s="278" t="s">
+      <c r="B82" s="272"/>
+      <c r="C82" s="273" t="s">
         <v>92</v>
       </c>
-      <c r="D82" s="278"/>
-      <c r="E82" s="278"/>
-      <c r="F82" s="278"/>
-      <c r="G82" s="278"/>
-      <c r="H82" s="278"/>
-      <c r="I82" s="278"/>
-      <c r="J82" s="278"/>
-      <c r="K82" s="278"/>
-      <c r="L82" s="278"/>
-      <c r="M82" s="278"/>
-      <c r="N82" s="278"/>
-      <c r="O82" s="301"/>
-      <c r="P82" s="302"/>
+      <c r="D82" s="273"/>
+      <c r="E82" s="273"/>
+      <c r="F82" s="273"/>
+      <c r="G82" s="273"/>
+      <c r="H82" s="273"/>
+      <c r="I82" s="273"/>
+      <c r="J82" s="273"/>
+      <c r="K82" s="273"/>
+      <c r="L82" s="273"/>
+      <c r="M82" s="273"/>
+      <c r="N82" s="273"/>
+      <c r="O82" s="296"/>
+      <c r="P82" s="297"/>
     </row>
     <row r="83" s="217" customFormat="1" ht="22.5" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A83" s="276" t="s">
+      <c r="A83" s="271" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="277"/>
-      <c r="C83" s="279" t="s">
+      <c r="B83" s="272"/>
+      <c r="C83" s="274" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="279"/>
-      <c r="E83" s="279"/>
-      <c r="F83" s="279"/>
-      <c r="G83" s="279"/>
-      <c r="H83" s="279"/>
-      <c r="I83" s="279"/>
-      <c r="J83" s="279"/>
-      <c r="K83" s="279"/>
-      <c r="L83" s="279"/>
-      <c r="M83" s="279"/>
-      <c r="N83" s="279"/>
-      <c r="O83" s="303"/>
-      <c r="P83" s="302"/>
+      <c r="D83" s="274"/>
+      <c r="E83" s="274"/>
+      <c r="F83" s="274"/>
+      <c r="G83" s="274"/>
+      <c r="H83" s="274"/>
+      <c r="I83" s="274"/>
+      <c r="J83" s="274"/>
+      <c r="K83" s="274"/>
+      <c r="L83" s="274"/>
+      <c r="M83" s="274"/>
+      <c r="N83" s="274"/>
+      <c r="O83" s="298"/>
+      <c r="P83" s="297"/>
     </row>
     <row r="84" s="217" customFormat="1" ht="18" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A84" s="280" t="s">
+      <c r="A84" s="275" t="s">
         <v>95</v>
       </c>
-      <c r="B84" s="281"/>
-      <c r="C84" s="282" t="s">
+      <c r="B84" s="276"/>
+      <c r="C84" s="277" t="s">
         <v>96</v>
       </c>
-      <c r="D84" s="282"/>
-      <c r="E84" s="282"/>
-      <c r="F84" s="282"/>
-      <c r="G84" s="282"/>
-      <c r="H84" s="282"/>
-      <c r="I84" s="282"/>
-      <c r="J84" s="282"/>
-      <c r="K84" s="282"/>
-      <c r="L84" s="282"/>
-      <c r="M84" s="282"/>
-      <c r="N84" s="282"/>
-      <c r="O84" s="304"/>
-      <c r="P84" s="302"/>
+      <c r="D84" s="277"/>
+      <c r="E84" s="277"/>
+      <c r="F84" s="277"/>
+      <c r="G84" s="277"/>
+      <c r="H84" s="277"/>
+      <c r="I84" s="277"/>
+      <c r="J84" s="277"/>
+      <c r="K84" s="277"/>
+      <c r="L84" s="277"/>
+      <c r="M84" s="277"/>
+      <c r="N84" s="277"/>
+      <c r="O84" s="299"/>
+      <c r="P84" s="297"/>
     </row>
     <row r="85" s="217" customFormat="1" ht="18" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A85" s="280" t="s">
+      <c r="A85" s="275" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="281"/>
-      <c r="C85" s="282" t="s">
+      <c r="B85" s="276"/>
+      <c r="C85" s="277" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="282"/>
-      <c r="E85" s="282"/>
-      <c r="F85" s="282"/>
-      <c r="G85" s="282"/>
-      <c r="H85" s="282"/>
-      <c r="I85" s="282"/>
-      <c r="J85" s="282"/>
-      <c r="K85" s="282"/>
-      <c r="L85" s="282"/>
-      <c r="M85" s="282"/>
-      <c r="N85" s="282"/>
-      <c r="O85" s="304"/>
-      <c r="P85" s="302"/>
+      <c r="D85" s="277"/>
+      <c r="E85" s="277"/>
+      <c r="F85" s="277"/>
+      <c r="G85" s="277"/>
+      <c r="H85" s="277"/>
+      <c r="I85" s="277"/>
+      <c r="J85" s="277"/>
+      <c r="K85" s="277"/>
+      <c r="L85" s="277"/>
+      <c r="M85" s="277"/>
+      <c r="N85" s="277"/>
+      <c r="O85" s="299"/>
+      <c r="P85" s="297"/>
     </row>
     <row r="86" s="217" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
-      <c r="A86" s="280" t="s">
+      <c r="A86" s="275" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="281"/>
-      <c r="C86" s="283" t="s">
+      <c r="B86" s="276"/>
+      <c r="C86" s="278" t="s">
         <v>100</v>
       </c>
-      <c r="D86" s="283"/>
-      <c r="E86" s="283"/>
-      <c r="F86" s="283"/>
-      <c r="G86" s="283"/>
-      <c r="H86" s="283"/>
-      <c r="I86" s="283"/>
-      <c r="J86" s="283"/>
-      <c r="K86" s="283"/>
-      <c r="L86" s="283"/>
-      <c r="M86" s="283"/>
-      <c r="N86" s="283"/>
-      <c r="O86" s="305"/>
-      <c r="P86" s="302"/>
+      <c r="D86" s="278"/>
+      <c r="E86" s="278"/>
+      <c r="F86" s="278"/>
+      <c r="G86" s="278"/>
+      <c r="H86" s="278"/>
+      <c r="I86" s="278"/>
+      <c r="J86" s="278"/>
+      <c r="K86" s="278"/>
+      <c r="L86" s="278"/>
+      <c r="M86" s="278"/>
+      <c r="N86" s="278"/>
+      <c r="O86" s="300"/>
+      <c r="P86" s="297"/>
     </row>
     <row r="87" s="217" customFormat="1" ht="45.6" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A87" s="280" t="s">
+      <c r="A87" s="275" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="281"/>
-      <c r="C87" s="284" t="s">
+      <c r="B87" s="276"/>
+      <c r="C87" s="279" t="s">
         <v>102</v>
       </c>
-      <c r="D87" s="284"/>
-      <c r="E87" s="284"/>
-      <c r="F87" s="284"/>
-      <c r="G87" s="284"/>
-      <c r="H87" s="284"/>
-      <c r="I87" s="284"/>
-      <c r="J87" s="284"/>
-      <c r="K87" s="284"/>
-      <c r="L87" s="284"/>
-      <c r="M87" s="284"/>
-      <c r="N87" s="284"/>
-      <c r="O87" s="306"/>
-      <c r="P87" s="302"/>
+      <c r="D87" s="279"/>
+      <c r="E87" s="279"/>
+      <c r="F87" s="279"/>
+      <c r="G87" s="279"/>
+      <c r="H87" s="279"/>
+      <c r="I87" s="279"/>
+      <c r="J87" s="279"/>
+      <c r="K87" s="279"/>
+      <c r="L87" s="279"/>
+      <c r="M87" s="279"/>
+      <c r="N87" s="279"/>
+      <c r="O87" s="301"/>
+      <c r="P87" s="297"/>
     </row>
     <row r="88" s="216" customFormat="1" ht="23.25" customHeight="1" spans="1:15">
-      <c r="A88" s="285" t="s">
+      <c r="A88" s="280" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="285"/>
-      <c r="C88" s="286" t="s">
+      <c r="B88" s="280"/>
+      <c r="C88" s="281" t="s">
         <v>103</v>
       </c>
-      <c r="D88" s="287"/>
-      <c r="E88" s="287"/>
-      <c r="F88" s="287"/>
-      <c r="G88" s="287"/>
-      <c r="H88" s="287"/>
-      <c r="I88" s="287"/>
-      <c r="J88" s="287"/>
-      <c r="K88" s="287"/>
-      <c r="L88" s="287"/>
-      <c r="M88" s="287"/>
-      <c r="N88" s="287"/>
-      <c r="O88" s="287"/>
+      <c r="D88" s="282"/>
+      <c r="E88" s="282"/>
+      <c r="F88" s="282"/>
+      <c r="G88" s="282"/>
+      <c r="H88" s="282"/>
+      <c r="I88" s="282"/>
+      <c r="J88" s="282"/>
+      <c r="K88" s="282"/>
+      <c r="L88" s="282"/>
+      <c r="M88" s="282"/>
+      <c r="N88" s="282"/>
+      <c r="O88" s="282"/>
     </row>
     <row r="89" s="216" customFormat="1" ht="23.25" customHeight="1" spans="1:15">
-      <c r="A89" s="288" t="s">
+      <c r="A89" s="283" t="s">
         <v>104</v>
       </c>
-      <c r="B89" s="289"/>
-      <c r="C89" s="289"/>
-      <c r="D89" s="289"/>
-      <c r="E89" s="289"/>
-      <c r="F89" s="289"/>
-      <c r="G89" s="289"/>
-      <c r="H89" s="289"/>
-      <c r="I89" s="289"/>
-      <c r="J89" s="289"/>
-      <c r="K89" s="289"/>
-      <c r="L89" s="289"/>
-      <c r="M89" s="289"/>
-      <c r="N89" s="289"/>
-      <c r="O89" s="307"/>
+      <c r="B89" s="284"/>
+      <c r="C89" s="284"/>
+      <c r="D89" s="284"/>
+      <c r="E89" s="284"/>
+      <c r="F89" s="284"/>
+      <c r="G89" s="284"/>
+      <c r="H89" s="284"/>
+      <c r="I89" s="284"/>
+      <c r="J89" s="284"/>
+      <c r="K89" s="284"/>
+      <c r="L89" s="284"/>
+      <c r="M89" s="284"/>
+      <c r="N89" s="284"/>
+      <c r="O89" s="302"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="290" t="s">
+      <c r="A90" s="285" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="291"/>
-      <c r="C90" s="286" t="s">
+      <c r="B90" s="286"/>
+      <c r="C90" s="281" t="s">
         <v>106</v>
       </c>
-      <c r="D90" s="286"/>
-      <c r="E90" s="286"/>
-      <c r="F90" s="292"/>
-      <c r="G90" s="292"/>
-      <c r="H90" s="292"/>
-      <c r="I90" s="292"/>
-      <c r="J90" s="292"/>
-      <c r="K90" s="292"/>
-      <c r="L90" s="292"/>
-      <c r="M90" s="292"/>
-      <c r="N90" s="292"/>
-      <c r="O90" s="292"/>
+      <c r="D90" s="281"/>
+      <c r="E90" s="281"/>
+      <c r="F90" s="287"/>
+      <c r="G90" s="287"/>
+      <c r="H90" s="287"/>
+      <c r="I90" s="287"/>
+      <c r="J90" s="287"/>
+      <c r="K90" s="287"/>
+      <c r="L90" s="287"/>
+      <c r="M90" s="287"/>
+      <c r="N90" s="287"/>
+      <c r="O90" s="287"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="290" t="s">
+      <c r="A91" s="285" t="s">
         <v>107</v>
       </c>
-      <c r="B91" s="291"/>
-      <c r="C91" s="286" t="s">
+      <c r="B91" s="286"/>
+      <c r="C91" s="281" t="s">
         <v>108</v>
       </c>
-      <c r="D91" s="286"/>
-      <c r="E91" s="286"/>
-      <c r="F91" s="292"/>
-      <c r="G91" s="292"/>
-      <c r="H91" s="292"/>
-      <c r="I91" s="292"/>
-      <c r="J91" s="292"/>
-      <c r="K91" s="292"/>
-      <c r="L91" s="292"/>
-      <c r="M91" s="292"/>
-      <c r="N91" s="292"/>
-      <c r="O91" s="292"/>
+      <c r="D91" s="281"/>
+      <c r="E91" s="281"/>
+      <c r="F91" s="287"/>
+      <c r="G91" s="287"/>
+      <c r="H91" s="287"/>
+      <c r="I91" s="287"/>
+      <c r="J91" s="287"/>
+      <c r="K91" s="287"/>
+      <c r="L91" s="287"/>
+      <c r="M91" s="287"/>
+      <c r="N91" s="287"/>
+      <c r="O91" s="287"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="290" t="s">
+      <c r="A92" s="285" t="s">
         <v>109</v>
       </c>
-      <c r="B92" s="291"/>
-      <c r="C92" s="293" t="s">
+      <c r="B92" s="286"/>
+      <c r="C92" s="288" t="s">
         <v>110</v>
       </c>
-      <c r="D92" s="286"/>
-      <c r="E92" s="286"/>
-      <c r="F92" s="292"/>
-      <c r="G92" s="292"/>
-      <c r="H92" s="292"/>
-      <c r="I92" s="292"/>
-      <c r="J92" s="292"/>
-      <c r="K92" s="292"/>
-      <c r="L92" s="292"/>
-      <c r="M92" s="292"/>
-      <c r="N92" s="292"/>
-      <c r="O92" s="292"/>
+      <c r="D92" s="281"/>
+      <c r="E92" s="281"/>
+      <c r="F92" s="287"/>
+      <c r="G92" s="287"/>
+      <c r="H92" s="287"/>
+      <c r="I92" s="287"/>
+      <c r="J92" s="287"/>
+      <c r="K92" s="287"/>
+      <c r="L92" s="287"/>
+      <c r="M92" s="287"/>
+      <c r="N92" s="287"/>
+      <c r="O92" s="287"/>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:15">
-      <c r="A93" s="290" t="s">
+      <c r="A93" s="285" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="291"/>
-      <c r="C93" s="294" t="s">
+      <c r="B93" s="286"/>
+      <c r="C93" s="289" t="s">
         <v>112</v>
       </c>
-      <c r="D93" s="293"/>
-      <c r="E93" s="293"/>
-      <c r="F93" s="287"/>
-      <c r="G93" s="287"/>
-      <c r="H93" s="287"/>
-      <c r="I93" s="287"/>
-      <c r="J93" s="287"/>
-      <c r="K93" s="287"/>
-      <c r="L93" s="287"/>
-      <c r="M93" s="287"/>
-      <c r="N93" s="287"/>
-      <c r="O93" s="287"/>
+      <c r="D93" s="288"/>
+      <c r="E93" s="288"/>
+      <c r="F93" s="282"/>
+      <c r="G93" s="282"/>
+      <c r="H93" s="282"/>
+      <c r="I93" s="282"/>
+      <c r="J93" s="282"/>
+      <c r="K93" s="282"/>
+      <c r="L93" s="282"/>
+      <c r="M93" s="282"/>
+      <c r="N93" s="282"/>
+      <c r="O93" s="282"/>
     </row>
   </sheetData>
   <mergeCells count="33">
